--- a/results/aucs/katz_centrality/aucs_katz_centrality_results.xlsx
+++ b/results/aucs/katz_centrality/aucs_katz_centrality_results.xlsx
@@ -635,22 +635,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>19.74</v>
+        <v>10.11</v>
       </c>
       <c r="C2">
-        <v>20.02</v>
+        <v>22.36</v>
       </c>
       <c r="D2">
-        <v>19.89</v>
+        <v>14.48</v>
       </c>
       <c r="E2">
-        <v>19.97</v>
+        <v>17.9</v>
       </c>
       <c r="F2">
-        <v>20.37</v>
+        <v>35.14</v>
       </c>
       <c r="G2">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -658,22 +658,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>19.76</v>
+        <v>10.57</v>
       </c>
       <c r="C3">
-        <v>20.06</v>
+        <v>25.12</v>
       </c>
       <c r="D3">
-        <v>20.11</v>
+        <v>20.4</v>
       </c>
       <c r="E3">
-        <v>19.86</v>
+        <v>15.43</v>
       </c>
       <c r="F3">
-        <v>20.21</v>
+        <v>28.48</v>
       </c>
       <c r="G3">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -681,22 +681,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>89.13</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -704,22 +704,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>19.75</v>
+        <v>10.69</v>
       </c>
       <c r="C5">
-        <v>20.37</v>
+        <v>30.51</v>
       </c>
       <c r="D5">
-        <v>19.78</v>
+        <v>11.83</v>
       </c>
       <c r="E5">
-        <v>20.23</v>
+        <v>25.81</v>
       </c>
       <c r="F5">
-        <v>19.88</v>
+        <v>21.16</v>
       </c>
       <c r="G5">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -727,22 +727,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C6">
-        <v>25.1</v>
+        <v>30.15</v>
       </c>
       <c r="D6">
-        <v>24.92</v>
+        <v>21.42</v>
       </c>
       <c r="E6">
-        <v>24.84</v>
+        <v>18.51</v>
       </c>
       <c r="F6">
-        <v>25.13</v>
+        <v>29.85</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -750,22 +750,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C7">
-        <v>24.92</v>
+        <v>24.42</v>
       </c>
       <c r="D7">
-        <v>24.8</v>
+        <v>16.33</v>
       </c>
       <c r="E7">
-        <v>25.44</v>
+        <v>36.46</v>
       </c>
       <c r="F7">
-        <v>24.83</v>
+        <v>22.65</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -773,22 +773,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>19.81</v>
+        <v>11.62</v>
       </c>
       <c r="C8">
-        <v>20.07</v>
+        <v>24.45</v>
       </c>
       <c r="D8">
-        <v>19.89</v>
+        <v>14.51</v>
       </c>
       <c r="E8">
-        <v>19.91</v>
+        <v>18.57</v>
       </c>
       <c r="F8">
-        <v>20.32</v>
+        <v>30.85</v>
       </c>
       <c r="G8">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -796,22 +796,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>33.4</v>
+        <v>36.08</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>33.37</v>
+        <v>33.39</v>
       </c>
       <c r="F9">
-        <v>33.23</v>
+        <v>29.83</v>
       </c>
       <c r="G9">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -819,19 +819,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="C10">
-        <v>25.14</v>
+        <v>29.86</v>
       </c>
       <c r="D10">
-        <v>24.9</v>
+        <v>19.92</v>
       </c>
       <c r="E10">
-        <v>25.08</v>
+        <v>27.9</v>
       </c>
       <c r="F10">
-        <v>24.88</v>
+        <v>22.05</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -842,22 +842,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>24.7</v>
+        <v>13.07</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="D11">
-        <v>24.7</v>
+        <v>13.57</v>
       </c>
       <c r="E11">
-        <v>25.12</v>
+        <v>26.19</v>
       </c>
       <c r="F11">
-        <v>25.48</v>
+        <v>44.11</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -865,22 +865,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C12">
-        <v>32.82</v>
+        <v>25.93</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="E12">
-        <v>32.36</v>
+        <v>17.26</v>
       </c>
       <c r="F12">
-        <v>34.82</v>
+        <v>54.84</v>
       </c>
       <c r="G12">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -888,22 +888,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C13">
-        <v>25.7</v>
+        <v>40.9</v>
       </c>
       <c r="D13">
-        <v>24.7</v>
+        <v>14.55</v>
       </c>
       <c r="E13">
-        <v>24.7</v>
+        <v>18.24</v>
       </c>
       <c r="F13">
-        <v>24.89</v>
+        <v>26.16</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -911,22 +911,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="D14">
-        <v>33.17</v>
+        <v>24.78</v>
       </c>
       <c r="E14">
-        <v>34.02</v>
+        <v>44.95</v>
       </c>
       <c r="F14">
-        <v>32.81</v>
+        <v>23.42</v>
       </c>
       <c r="G14">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -934,22 +934,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>24.85</v>
+        <v>16.73</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="D15">
-        <v>24.91</v>
+        <v>20.15</v>
       </c>
       <c r="E15">
-        <v>25.09</v>
+        <v>28.73</v>
       </c>
       <c r="F15">
-        <v>25.15</v>
+        <v>30.7</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -957,22 +957,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>24.59</v>
+        <v>10.95</v>
       </c>
       <c r="C16">
-        <v>25.11</v>
+        <v>29.52</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="E16">
-        <v>24.78</v>
+        <v>20.25</v>
       </c>
       <c r="F16">
-        <v>25.52</v>
+        <v>37.82</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -980,22 +980,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>24.65</v>
+        <v>11.75</v>
       </c>
       <c r="C17">
-        <v>24.77</v>
+        <v>19.77</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="E17">
-        <v>25.82</v>
+        <v>46.76</v>
       </c>
       <c r="F17">
-        <v>24.76</v>
+        <v>20.84</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1003,22 +1003,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>24.87</v>
+        <v>17.12</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="D18">
-        <v>25.01</v>
+        <v>23.32</v>
       </c>
       <c r="E18">
-        <v>25.04</v>
+        <v>26.4</v>
       </c>
       <c r="F18">
-        <v>25.08</v>
+        <v>29.35</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1026,22 +1026,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="E19">
-        <v>49.13</v>
+        <v>24.06</v>
       </c>
       <c r="F19">
-        <v>50.87</v>
+        <v>69.97</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1049,22 +1049,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="D20">
-        <v>33.11</v>
+        <v>23.25</v>
       </c>
       <c r="E20">
-        <v>33.37</v>
+        <v>30.64</v>
       </c>
       <c r="F20">
-        <v>33.52</v>
+        <v>41.87</v>
       </c>
       <c r="G20">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1072,22 +1072,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>93.81</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1095,22 +1095,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="D22">
-        <v>33.2</v>
+        <v>25.72</v>
       </c>
       <c r="E22">
-        <v>33.55</v>
+        <v>40.37</v>
       </c>
       <c r="F22">
-        <v>33.26</v>
+        <v>31.53</v>
       </c>
       <c r="G22">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1118,22 +1118,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>19.75</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C23">
-        <v>20.6</v>
+        <v>40.71</v>
       </c>
       <c r="D23">
-        <v>19.95</v>
+        <v>15.25</v>
       </c>
       <c r="E23">
-        <v>19.85</v>
+        <v>15.47</v>
       </c>
       <c r="F23">
-        <v>19.84</v>
+        <v>18.79</v>
       </c>
       <c r="G23">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1141,22 +1141,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="D24">
-        <v>33.3</v>
+        <v>29.61</v>
       </c>
       <c r="E24">
-        <v>33.28</v>
+        <v>27.24</v>
       </c>
       <c r="F24">
-        <v>33.42</v>
+        <v>38.07</v>
       </c>
       <c r="G24">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1164,22 +1164,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>19.82</v>
+        <v>11.11</v>
       </c>
       <c r="C25">
-        <v>20.17</v>
+        <v>26.88</v>
       </c>
       <c r="D25">
-        <v>19.92</v>
+        <v>14.36</v>
       </c>
       <c r="E25">
-        <v>20.17</v>
+        <v>25.62</v>
       </c>
       <c r="F25">
-        <v>19.93</v>
+        <v>22.04</v>
       </c>
       <c r="G25">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1187,22 +1187,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="D26">
-        <v>33.11</v>
+        <v>22.92</v>
       </c>
       <c r="E26">
-        <v>33.23</v>
+        <v>26.78</v>
       </c>
       <c r="F26">
-        <v>33.66</v>
+        <v>47.04</v>
       </c>
       <c r="G26">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1210,22 +1210,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C27">
-        <v>25.04</v>
+        <v>25.79</v>
       </c>
       <c r="D27">
-        <v>24.83</v>
+        <v>17.3</v>
       </c>
       <c r="E27">
-        <v>25.21</v>
+        <v>32.56</v>
       </c>
       <c r="F27">
-        <v>24.93</v>
+        <v>24.17</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1233,22 +1233,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>24.84</v>
+        <v>16.5</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="D28">
-        <v>24.84</v>
+        <v>16.9</v>
       </c>
       <c r="E28">
-        <v>25.22</v>
+        <v>31.67</v>
       </c>
       <c r="F28">
-        <v>25.11</v>
+        <v>32.77</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1256,22 +1256,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="D29">
-        <v>33.28</v>
+        <v>29.28</v>
       </c>
       <c r="E29">
-        <v>33.28</v>
+        <v>29.48</v>
       </c>
       <c r="F29">
-        <v>33.43</v>
+        <v>39.02</v>
       </c>
       <c r="G29">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1279,22 +1279,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>24.54</v>
+        <v>10.59</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="D30">
-        <v>24.56</v>
+        <v>11.58</v>
       </c>
       <c r="E30">
-        <v>24.89</v>
+        <v>20.35</v>
       </c>
       <c r="F30">
-        <v>26</v>
+        <v>53.27</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1302,22 +1302,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>19.84</v>
+        <v>12.49</v>
       </c>
       <c r="C31">
-        <v>20.12</v>
+        <v>26.25</v>
       </c>
       <c r="D31">
-        <v>19.94</v>
+        <v>17.42</v>
       </c>
       <c r="E31">
-        <v>20.07</v>
+        <v>21.59</v>
       </c>
       <c r="F31">
-        <v>20.02</v>
+        <v>22.25</v>
       </c>
       <c r="G31">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1325,22 +1325,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C32">
-        <v>25.25</v>
+        <v>33.42</v>
       </c>
       <c r="D32">
-        <v>24.75</v>
+        <v>14.45</v>
       </c>
       <c r="E32">
-        <v>25.16</v>
+        <v>28.65</v>
       </c>
       <c r="F32">
-        <v>24.84</v>
+        <v>23.36</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1348,22 +1348,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>19.68</v>
+        <v>8.99</v>
       </c>
       <c r="C33">
-        <v>20.42</v>
+        <v>34.51</v>
       </c>
       <c r="D33">
-        <v>19.71</v>
+        <v>10.42</v>
       </c>
       <c r="E33">
-        <v>19.92</v>
+        <v>16.56</v>
       </c>
       <c r="F33">
-        <v>20.27</v>
+        <v>29.53</v>
       </c>
       <c r="G33">
-        <v>2.32</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1371,22 +1371,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6.89</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="E34">
-        <v>49.73</v>
+        <v>34.15</v>
       </c>
       <c r="F34">
-        <v>50.26</v>
+        <v>57.7</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1394,22 +1394,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="D35">
-        <v>33.24</v>
+        <v>27.48</v>
       </c>
       <c r="E35">
-        <v>33.74</v>
+        <v>44.11</v>
       </c>
       <c r="F35">
-        <v>33.02</v>
+        <v>24.31</v>
       </c>
       <c r="G35">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1417,22 +1417,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C36">
-        <v>25.14</v>
+        <v>30.24</v>
       </c>
       <c r="D36">
-        <v>24.3</v>
+        <v>9.25</v>
       </c>
       <c r="E36">
-        <v>24.99</v>
+        <v>22.79</v>
       </c>
       <c r="F36">
-        <v>25.57</v>
+        <v>37.41</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1440,22 +1440,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>24.88</v>
+        <v>18.59</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="D37">
-        <v>24.92</v>
+        <v>19.81</v>
       </c>
       <c r="E37">
-        <v>25.22</v>
+        <v>33.92</v>
       </c>
       <c r="F37">
-        <v>24.98</v>
+        <v>25.93</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1463,22 +1463,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="C38">
-        <v>24.9</v>
+        <v>23.22</v>
       </c>
       <c r="D38">
-        <v>24.88</v>
+        <v>17.57</v>
       </c>
       <c r="E38">
-        <v>25.32</v>
+        <v>33.07</v>
       </c>
       <c r="F38">
-        <v>24.9</v>
+        <v>26.05</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1486,22 +1486,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>19.79</v>
+        <v>10.4</v>
       </c>
       <c r="C39">
-        <v>20.5</v>
+        <v>36.64</v>
       </c>
       <c r="D39">
-        <v>19.77</v>
+        <v>11.24</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>20.17</v>
       </c>
       <c r="F39">
-        <v>19.94</v>
+        <v>21.56</v>
       </c>
       <c r="G39">
-        <v>2.32</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1509,22 +1509,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>33.02</v>
+        <v>20.9</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="E40">
-        <v>33.74</v>
+        <v>44.7</v>
       </c>
       <c r="F40">
-        <v>33.23</v>
+        <v>30.89</v>
       </c>
       <c r="G40">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1532,22 +1532,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C41">
-        <v>24.92</v>
+        <v>21.62</v>
       </c>
       <c r="D41">
-        <v>24.86</v>
+        <v>17.47</v>
       </c>
       <c r="E41">
-        <v>25.21</v>
+        <v>31.64</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>29.22</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1555,22 +1555,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>24.98</v>
+        <v>21.31</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="D42">
-        <v>24.89</v>
+        <v>20.18</v>
       </c>
       <c r="E42">
-        <v>25.22</v>
+        <v>32.56</v>
       </c>
       <c r="F42">
-        <v>24.92</v>
+        <v>22.25</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1578,22 +1578,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C43">
-        <v>25.11</v>
+        <v>28.68</v>
       </c>
       <c r="D43">
-        <v>24.85</v>
+        <v>18.01</v>
       </c>
       <c r="E43">
-        <v>24.97</v>
+        <v>24.1</v>
       </c>
       <c r="F43">
-        <v>25.08</v>
+        <v>29.09</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1601,19 +1601,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="C44">
-        <v>25.07</v>
+        <v>28.38</v>
       </c>
       <c r="D44">
-        <v>24.91</v>
+        <v>20.11</v>
       </c>
       <c r="E44">
-        <v>25.18</v>
+        <v>30.46</v>
       </c>
       <c r="F44">
-        <v>24.83</v>
+        <v>20.76</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1624,22 +1624,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="C45">
-        <v>25.03</v>
+        <v>25.84</v>
       </c>
       <c r="D45">
-        <v>24.79</v>
+        <v>16.15</v>
       </c>
       <c r="E45">
-        <v>25.26</v>
+        <v>32.96</v>
       </c>
       <c r="F45">
-        <v>24.92</v>
+        <v>24.87</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1647,22 +1647,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="D46">
-        <v>32.91</v>
+        <v>16.36</v>
       </c>
       <c r="E46">
-        <v>33.69</v>
+        <v>41.71</v>
       </c>
       <c r="F46">
-        <v>33.4</v>
+        <v>35.83</v>
       </c>
       <c r="G46">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1670,22 +1670,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="E47">
-        <v>50.08</v>
+        <v>43.98</v>
       </c>
       <c r="F47">
-        <v>49.91</v>
+        <v>46.79</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1693,22 +1693,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>26.28</v>
       </c>
       <c r="D48">
-        <v>25.09</v>
+        <v>26.57</v>
       </c>
       <c r="E48">
-        <v>25.04</v>
+        <v>25.5</v>
       </c>
       <c r="F48">
-        <v>24.86</v>
+        <v>21.43</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1716,22 +1716,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="C49">
-        <v>25.1</v>
+        <v>28.54</v>
       </c>
       <c r="D49">
-        <v>24.42</v>
+        <v>10.87</v>
       </c>
       <c r="E49">
-        <v>24.88</v>
+        <v>21.89</v>
       </c>
       <c r="F49">
-        <v>25.61</v>
+        <v>38.39</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1739,22 +1739,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>24.87</v>
+        <v>18.33</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="D50">
-        <v>24.9</v>
+        <v>19.73</v>
       </c>
       <c r="E50">
-        <v>25.22</v>
+        <v>32.03</v>
       </c>
       <c r="F50">
-        <v>25.01</v>
+        <v>26.33</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1762,22 +1762,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C51">
-        <v>25.14</v>
+        <v>29.98</v>
       </c>
       <c r="D51">
-        <v>24.77</v>
+        <v>16.84</v>
       </c>
       <c r="E51">
-        <v>25.19</v>
+        <v>30.68</v>
       </c>
       <c r="F51">
-        <v>24.89</v>
+        <v>22.31</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1785,22 +1785,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C52">
-        <v>33.13</v>
+        <v>29.09</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E52">
-        <v>32.84</v>
+        <v>20.35</v>
       </c>
       <c r="F52">
-        <v>34.03</v>
+        <v>49.14</v>
       </c>
       <c r="G52">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1808,22 +1808,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>24.8</v>
+        <v>15.65</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="D53">
-        <v>24.89</v>
+        <v>19.88</v>
       </c>
       <c r="E53">
-        <v>25.42</v>
+        <v>37.06</v>
       </c>
       <c r="F53">
-        <v>24.89</v>
+        <v>22.84</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1831,22 +1831,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="D54">
-        <v>33.41</v>
+        <v>33.31</v>
       </c>
       <c r="E54">
-        <v>33.26</v>
+        <v>27.83</v>
       </c>
       <c r="F54">
-        <v>33.33</v>
+        <v>34.29</v>
       </c>
       <c r="G54">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1854,22 +1854,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>19.76</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>20.21</v>
+        <v>27.18</v>
       </c>
       <c r="D55">
-        <v>19.96</v>
+        <v>15.26</v>
       </c>
       <c r="E55">
-        <v>20.16</v>
+        <v>25.06</v>
       </c>
       <c r="F55">
-        <v>19.92</v>
+        <v>22.49</v>
       </c>
       <c r="G55">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1877,22 +1877,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="C56">
-        <v>25.31</v>
+        <v>32.15</v>
       </c>
       <c r="D56">
-        <v>24.68</v>
+        <v>14.62</v>
       </c>
       <c r="E56">
-        <v>25.14</v>
+        <v>26.15</v>
       </c>
       <c r="F56">
-        <v>24.86</v>
+        <v>26.81</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1900,22 +1900,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="E57">
-        <v>49.91</v>
+        <v>43.79</v>
       </c>
       <c r="F57">
-        <v>50.09</v>
+        <v>51.14</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1923,22 +1923,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="D58">
-        <v>33.24</v>
+        <v>24.89</v>
       </c>
       <c r="E58">
-        <v>33.53</v>
+        <v>35.84</v>
       </c>
       <c r="F58">
-        <v>33.23</v>
+        <v>32.52</v>
       </c>
       <c r="G58">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1946,22 +1946,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>19.63</v>
+        <v>8.59</v>
       </c>
       <c r="C59">
-        <v>20.49</v>
+        <v>34.67</v>
       </c>
       <c r="D59">
-        <v>20.31</v>
+        <v>23.52</v>
       </c>
       <c r="E59">
-        <v>19.77</v>
+        <v>15.52</v>
       </c>
       <c r="F59">
-        <v>19.8</v>
+        <v>17.7</v>
       </c>
       <c r="G59">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1969,22 +1969,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="E60">
-        <v>50.26</v>
+        <v>55.42</v>
       </c>
       <c r="F60">
-        <v>49.74</v>
+        <v>40.4</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1992,22 +1992,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>32.77</v>
+        <v>15.76</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E61">
-        <v>33.61</v>
+        <v>34.8</v>
       </c>
       <c r="F61">
-        <v>33.62</v>
+        <v>43.25</v>
       </c>
       <c r="G61">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2015,22 +2015,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>24.8</v>
+        <v>14.31</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="D62">
-        <v>24.86</v>
+        <v>16.57</v>
       </c>
       <c r="E62">
-        <v>25.19</v>
+        <v>30.06</v>
       </c>
       <c r="F62">
-        <v>25.14</v>
+        <v>32.62</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2038,22 +2038,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>9.52</v>
+        <v>5.6</v>
       </c>
       <c r="C63">
-        <v>12.69</v>
+        <v>17.23</v>
       </c>
       <c r="D63">
-        <v>19.61</v>
+        <v>14.61</v>
       </c>
       <c r="E63">
-        <v>29.08</v>
+        <v>29.79</v>
       </c>
       <c r="F63">
-        <v>29.11</v>
+        <v>32.76</v>
       </c>
       <c r="G63">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>

--- a/results/aucs/katz_centrality/aucs_katz_centrality_results.xlsx
+++ b/results/aucs/katz_centrality/aucs_katz_centrality_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>coauthor</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>shannon_entropy</t>
+  </si>
+  <si>
+    <t>cluster_class</t>
   </si>
   <si>
     <t>U1</t>
@@ -604,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,10 +632,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>10.11</v>
@@ -652,10 +658,13 @@
       <c r="G2">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>10.57</v>
@@ -675,10 +684,13 @@
       <c r="G3">
         <v>2.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.06</v>
@@ -698,10 +710,13 @@
       <c r="G4">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>10.69</v>
@@ -721,10 +736,13 @@
       <c r="G5">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.07000000000000001</v>
@@ -744,10 +762,13 @@
       <c r="G6">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.14</v>
@@ -767,10 +788,13 @@
       <c r="G7">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>11.62</v>
@@ -790,10 +814,13 @@
       <c r="G8">
         <v>2.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -813,10 +840,13 @@
       <c r="G9">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0.28</v>
@@ -836,10 +866,13 @@
       <c r="G10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>13.07</v>
@@ -859,10 +892,13 @@
       <c r="G11">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0.25</v>
@@ -882,10 +918,13 @@
       <c r="G12">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0.15</v>
@@ -905,10 +944,13 @@
       <c r="G13">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0.33</v>
@@ -928,10 +970,13 @@
       <c r="G14">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>16.73</v>
@@ -951,10 +996,13 @@
       <c r="G15">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>10.95</v>
@@ -974,10 +1022,13 @@
       <c r="G16">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>11.75</v>
@@ -997,10 +1048,13 @@
       <c r="G17">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>17.12</v>
@@ -1020,10 +1074,13 @@
       <c r="G18">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0.23</v>
@@ -1043,10 +1100,13 @@
       <c r="G19">
         <v>1.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>0.06</v>
@@ -1066,10 +1126,13 @@
       <c r="G20">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0.13</v>
@@ -1089,10 +1152,13 @@
       <c r="G21">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0.1</v>
@@ -1112,10 +1178,13 @@
       <c r="G22">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>9.789999999999999</v>
@@ -1135,10 +1204,13 @@
       <c r="G23">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0.06</v>
@@ -1158,10 +1230,13 @@
       <c r="G24">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>11.11</v>
@@ -1181,10 +1256,13 @@
       <c r="G25">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>0.04</v>
@@ -1204,10 +1282,13 @@
       <c r="G26">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0.19</v>
@@ -1227,10 +1308,13 @@
       <c r="G27">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>16.5</v>
@@ -1250,10 +1334,13 @@
       <c r="G28">
         <v>2.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>0.02</v>
@@ -1273,10 +1360,13 @@
       <c r="G29">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>10.59</v>
@@ -1296,10 +1386,13 @@
       <c r="G30">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>12.49</v>
@@ -1319,10 +1412,13 @@
       <c r="G31">
         <v>2.28</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0.11</v>
@@ -1342,10 +1438,13 @@
       <c r="G32">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>8.99</v>
@@ -1365,10 +1464,13 @@
       <c r="G33">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>0.29</v>
@@ -1388,10 +1490,13 @@
       <c r="G34">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0.21</v>
@@ -1411,10 +1516,13 @@
       <c r="G35">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>0.3</v>
@@ -1434,10 +1542,13 @@
       <c r="G36">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>18.59</v>
@@ -1457,10 +1568,13 @@
       <c r="G37">
         <v>2.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>0.09</v>
@@ -1480,10 +1594,13 @@
       <c r="G38">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>10.4</v>
@@ -1503,10 +1620,13 @@
       <c r="G39">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>20.9</v>
@@ -1526,10 +1646,13 @@
       <c r="G40">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>0.05</v>
@@ -1549,10 +1672,13 @@
       <c r="G41">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>21.31</v>
@@ -1572,10 +1698,13 @@
       <c r="G42">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>0.12</v>
@@ -1595,10 +1724,13 @@
       <c r="G43">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>0.28</v>
@@ -1618,10 +1750,13 @@
       <c r="G44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0.18</v>
@@ -1641,10 +1776,13 @@
       <c r="G45">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>0.12</v>
@@ -1664,10 +1802,13 @@
       <c r="G46">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>0.16</v>
@@ -1687,10 +1828,13 @@
       <c r="G47">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>0.22</v>
@@ -1710,10 +1854,13 @@
       <c r="G48">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0.31</v>
@@ -1733,10 +1880,13 @@
       <c r="G49">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>18.33</v>
@@ -1756,10 +1906,13 @@
       <c r="G50">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>0.19</v>
@@ -1779,10 +1932,13 @@
       <c r="G51">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0.33</v>
@@ -1802,10 +1958,13 @@
       <c r="G52">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>15.65</v>
@@ -1825,10 +1984,13 @@
       <c r="G53">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>0.05</v>
@@ -1848,10 +2010,13 @@
       <c r="G54">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -1871,10 +2036,13 @@
       <c r="G55">
         <v>2.24</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>0.27</v>
@@ -1894,10 +2062,13 @@
       <c r="G56">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0.19</v>
@@ -1917,10 +2088,13 @@
       <c r="G57">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>0.13</v>
@@ -1940,10 +2114,13 @@
       <c r="G58">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>8.59</v>
@@ -1963,10 +2140,13 @@
       <c r="G59">
         <v>2.18</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>0.14</v>
@@ -1986,10 +2166,13 @@
       <c r="G60">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>15.76</v>
@@ -2009,10 +2192,13 @@
       <c r="G61">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>14.31</v>
@@ -2032,10 +2218,13 @@
       <c r="G62">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>5.6</v>
@@ -2054,6 +2243,9 @@
       </c>
       <c r="G63">
         <v>1.86</v>
+      </c>
+      <c r="H63">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/results/aucs/katz_centrality/aucs_katz_centrality_results.xlsx
+++ b/results/aucs/katz_centrality/aucs_katz_centrality_results.xlsx
@@ -7,14 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="LayerCentrality" sheetId="1" r:id="rId1"/>
+    <sheet name="Layer Centrality" sheetId="1" r:id="rId1"/>
+    <sheet name="cluster_0" sheetId="2" r:id="rId2"/>
+    <sheet name="cluster_1" sheetId="3" r:id="rId3"/>
+    <sheet name="cluster_2" sheetId="4" r:id="rId4"/>
+    <sheet name="cluster_3" sheetId="5" r:id="rId5"/>
+    <sheet name="cluster_-1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
   <si>
     <t>coauthor</t>
   </si>
@@ -2265,4 +2270,1970 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10.11</v>
+      </c>
+      <c r="C2">
+        <v>22.36</v>
+      </c>
+      <c r="D2">
+        <v>14.48</v>
+      </c>
+      <c r="E2">
+        <v>17.9</v>
+      </c>
+      <c r="F2">
+        <v>35.14</v>
+      </c>
+      <c r="G2">
+        <v>2.2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>10.57</v>
+      </c>
+      <c r="C3">
+        <v>25.12</v>
+      </c>
+      <c r="D3">
+        <v>20.4</v>
+      </c>
+      <c r="E3">
+        <v>15.43</v>
+      </c>
+      <c r="F3">
+        <v>28.48</v>
+      </c>
+      <c r="G3">
+        <v>2.24</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>10.69</v>
+      </c>
+      <c r="C4">
+        <v>30.51</v>
+      </c>
+      <c r="D4">
+        <v>11.83</v>
+      </c>
+      <c r="E4">
+        <v>25.81</v>
+      </c>
+      <c r="F4">
+        <v>21.16</v>
+      </c>
+      <c r="G4">
+        <v>2.21</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>11.62</v>
+      </c>
+      <c r="C5">
+        <v>24.45</v>
+      </c>
+      <c r="D5">
+        <v>14.51</v>
+      </c>
+      <c r="E5">
+        <v>18.57</v>
+      </c>
+      <c r="F5">
+        <v>30.85</v>
+      </c>
+      <c r="G5">
+        <v>2.24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>10.95</v>
+      </c>
+      <c r="C6">
+        <v>29.52</v>
+      </c>
+      <c r="D6">
+        <v>1.47</v>
+      </c>
+      <c r="E6">
+        <v>20.25</v>
+      </c>
+      <c r="F6">
+        <v>37.82</v>
+      </c>
+      <c r="G6">
+        <v>1.96</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C7">
+        <v>40.71</v>
+      </c>
+      <c r="D7">
+        <v>15.25</v>
+      </c>
+      <c r="E7">
+        <v>15.47</v>
+      </c>
+      <c r="F7">
+        <v>18.79</v>
+      </c>
+      <c r="G7">
+        <v>2.14</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>11.11</v>
+      </c>
+      <c r="C8">
+        <v>26.88</v>
+      </c>
+      <c r="D8">
+        <v>14.36</v>
+      </c>
+      <c r="E8">
+        <v>25.62</v>
+      </c>
+      <c r="F8">
+        <v>22.04</v>
+      </c>
+      <c r="G8">
+        <v>2.25</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>12.49</v>
+      </c>
+      <c r="C9">
+        <v>26.25</v>
+      </c>
+      <c r="D9">
+        <v>17.42</v>
+      </c>
+      <c r="E9">
+        <v>21.59</v>
+      </c>
+      <c r="F9">
+        <v>22.25</v>
+      </c>
+      <c r="G9">
+        <v>2.28</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>8.99</v>
+      </c>
+      <c r="C10">
+        <v>34.51</v>
+      </c>
+      <c r="D10">
+        <v>10.42</v>
+      </c>
+      <c r="E10">
+        <v>16.56</v>
+      </c>
+      <c r="F10">
+        <v>29.53</v>
+      </c>
+      <c r="G10">
+        <v>2.13</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>10.4</v>
+      </c>
+      <c r="C11">
+        <v>36.64</v>
+      </c>
+      <c r="D11">
+        <v>11.24</v>
+      </c>
+      <c r="E11">
+        <v>20.17</v>
+      </c>
+      <c r="F11">
+        <v>21.56</v>
+      </c>
+      <c r="G11">
+        <v>2.17</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>27.18</v>
+      </c>
+      <c r="D12">
+        <v>15.26</v>
+      </c>
+      <c r="E12">
+        <v>25.06</v>
+      </c>
+      <c r="F12">
+        <v>22.49</v>
+      </c>
+      <c r="G12">
+        <v>2.24</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>8.59</v>
+      </c>
+      <c r="C13">
+        <v>34.67</v>
+      </c>
+      <c r="D13">
+        <v>23.52</v>
+      </c>
+      <c r="E13">
+        <v>15.52</v>
+      </c>
+      <c r="F13">
+        <v>17.7</v>
+      </c>
+      <c r="G13">
+        <v>2.18</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>10.4425</v>
+      </c>
+      <c r="C14">
+        <v>29.9</v>
+      </c>
+      <c r="D14">
+        <v>14.18</v>
+      </c>
+      <c r="E14">
+        <v>19.82916666666667</v>
+      </c>
+      <c r="F14">
+        <v>25.65083333333333</v>
+      </c>
+      <c r="G14">
+        <v>2.186666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C2">
+        <v>30.15</v>
+      </c>
+      <c r="D2">
+        <v>21.42</v>
+      </c>
+      <c r="E2">
+        <v>18.51</v>
+      </c>
+      <c r="F2">
+        <v>29.85</v>
+      </c>
+      <c r="G2">
+        <v>1.98</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.14</v>
+      </c>
+      <c r="C3">
+        <v>24.42</v>
+      </c>
+      <c r="D3">
+        <v>16.33</v>
+      </c>
+      <c r="E3">
+        <v>36.46</v>
+      </c>
+      <c r="F3">
+        <v>22.65</v>
+      </c>
+      <c r="G3">
+        <v>1.95</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>36.08</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>33.39</v>
+      </c>
+      <c r="F4">
+        <v>29.83</v>
+      </c>
+      <c r="G4">
+        <v>1.63</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.28</v>
+      </c>
+      <c r="C5">
+        <v>29.86</v>
+      </c>
+      <c r="D5">
+        <v>19.92</v>
+      </c>
+      <c r="E5">
+        <v>27.9</v>
+      </c>
+      <c r="F5">
+        <v>22.05</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>25.93</v>
+      </c>
+      <c r="D6">
+        <v>1.71</v>
+      </c>
+      <c r="E6">
+        <v>17.26</v>
+      </c>
+      <c r="F6">
+        <v>54.84</v>
+      </c>
+      <c r="G6">
+        <v>1.54</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.15</v>
+      </c>
+      <c r="C7">
+        <v>40.9</v>
+      </c>
+      <c r="D7">
+        <v>14.55</v>
+      </c>
+      <c r="E7">
+        <v>18.24</v>
+      </c>
+      <c r="F7">
+        <v>26.16</v>
+      </c>
+      <c r="G7">
+        <v>1.9</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0.33</v>
+      </c>
+      <c r="C8">
+        <v>6.53</v>
+      </c>
+      <c r="D8">
+        <v>24.78</v>
+      </c>
+      <c r="E8">
+        <v>44.95</v>
+      </c>
+      <c r="F8">
+        <v>23.42</v>
+      </c>
+      <c r="G8">
+        <v>1.79</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.06</v>
+      </c>
+      <c r="C9">
+        <v>4.18</v>
+      </c>
+      <c r="D9">
+        <v>23.25</v>
+      </c>
+      <c r="E9">
+        <v>30.64</v>
+      </c>
+      <c r="F9">
+        <v>41.87</v>
+      </c>
+      <c r="G9">
+        <v>1.74</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>2.28</v>
+      </c>
+      <c r="D10">
+        <v>25.72</v>
+      </c>
+      <c r="E10">
+        <v>40.37</v>
+      </c>
+      <c r="F10">
+        <v>31.53</v>
+      </c>
+      <c r="G10">
+        <v>1.69</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>0.06</v>
+      </c>
+      <c r="C11">
+        <v>5.03</v>
+      </c>
+      <c r="D11">
+        <v>29.61</v>
+      </c>
+      <c r="E11">
+        <v>27.24</v>
+      </c>
+      <c r="F11">
+        <v>38.07</v>
+      </c>
+      <c r="G11">
+        <v>1.78</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0.04</v>
+      </c>
+      <c r="C12">
+        <v>3.22</v>
+      </c>
+      <c r="D12">
+        <v>22.92</v>
+      </c>
+      <c r="E12">
+        <v>26.78</v>
+      </c>
+      <c r="F12">
+        <v>47.04</v>
+      </c>
+      <c r="G12">
+        <v>1.67</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0.19</v>
+      </c>
+      <c r="C13">
+        <v>25.79</v>
+      </c>
+      <c r="D13">
+        <v>17.3</v>
+      </c>
+      <c r="E13">
+        <v>32.56</v>
+      </c>
+      <c r="F13">
+        <v>24.17</v>
+      </c>
+      <c r="G13">
+        <v>1.98</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="C14">
+        <v>2.21</v>
+      </c>
+      <c r="D14">
+        <v>29.28</v>
+      </c>
+      <c r="E14">
+        <v>29.48</v>
+      </c>
+      <c r="F14">
+        <v>39.02</v>
+      </c>
+      <c r="G14">
+        <v>1.69</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0.11</v>
+      </c>
+      <c r="C15">
+        <v>33.42</v>
+      </c>
+      <c r="D15">
+        <v>14.45</v>
+      </c>
+      <c r="E15">
+        <v>28.65</v>
+      </c>
+      <c r="F15">
+        <v>23.36</v>
+      </c>
+      <c r="G15">
+        <v>1.95</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>0.21</v>
+      </c>
+      <c r="C16">
+        <v>3.9</v>
+      </c>
+      <c r="D16">
+        <v>27.48</v>
+      </c>
+      <c r="E16">
+        <v>44.11</v>
+      </c>
+      <c r="F16">
+        <v>24.31</v>
+      </c>
+      <c r="G16">
+        <v>1.73</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>30.24</v>
+      </c>
+      <c r="D17">
+        <v>9.25</v>
+      </c>
+      <c r="E17">
+        <v>22.79</v>
+      </c>
+      <c r="F17">
+        <v>37.41</v>
+      </c>
+      <c r="G17">
+        <v>1.88</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>0.09</v>
+      </c>
+      <c r="C18">
+        <v>23.22</v>
+      </c>
+      <c r="D18">
+        <v>17.57</v>
+      </c>
+      <c r="E18">
+        <v>33.07</v>
+      </c>
+      <c r="F18">
+        <v>26.05</v>
+      </c>
+      <c r="G18">
+        <v>1.97</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0.05</v>
+      </c>
+      <c r="C19">
+        <v>21.62</v>
+      </c>
+      <c r="D19">
+        <v>17.47</v>
+      </c>
+      <c r="E19">
+        <v>31.64</v>
+      </c>
+      <c r="F19">
+        <v>29.22</v>
+      </c>
+      <c r="G19">
+        <v>1.97</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>0.12</v>
+      </c>
+      <c r="C20">
+        <v>28.68</v>
+      </c>
+      <c r="D20">
+        <v>18.01</v>
+      </c>
+      <c r="E20">
+        <v>24.1</v>
+      </c>
+      <c r="F20">
+        <v>29.09</v>
+      </c>
+      <c r="G20">
+        <v>1.99</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>0.28</v>
+      </c>
+      <c r="C21">
+        <v>28.38</v>
+      </c>
+      <c r="D21">
+        <v>20.11</v>
+      </c>
+      <c r="E21">
+        <v>30.46</v>
+      </c>
+      <c r="F21">
+        <v>20.76</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0.18</v>
+      </c>
+      <c r="C22">
+        <v>25.84</v>
+      </c>
+      <c r="D22">
+        <v>16.15</v>
+      </c>
+      <c r="E22">
+        <v>32.96</v>
+      </c>
+      <c r="F22">
+        <v>24.87</v>
+      </c>
+      <c r="G22">
+        <v>1.97</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>0.12</v>
+      </c>
+      <c r="C23">
+        <v>5.98</v>
+      </c>
+      <c r="D23">
+        <v>16.36</v>
+      </c>
+      <c r="E23">
+        <v>41.71</v>
+      </c>
+      <c r="F23">
+        <v>35.83</v>
+      </c>
+      <c r="G23">
+        <v>1.74</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>0.22</v>
+      </c>
+      <c r="C24">
+        <v>26.28</v>
+      </c>
+      <c r="D24">
+        <v>26.57</v>
+      </c>
+      <c r="E24">
+        <v>25.5</v>
+      </c>
+      <c r="F24">
+        <v>21.43</v>
+      </c>
+      <c r="G24">
+        <v>2.01</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>0.31</v>
+      </c>
+      <c r="C25">
+        <v>28.54</v>
+      </c>
+      <c r="D25">
+        <v>10.87</v>
+      </c>
+      <c r="E25">
+        <v>21.89</v>
+      </c>
+      <c r="F25">
+        <v>38.39</v>
+      </c>
+      <c r="G25">
+        <v>1.9</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>0.19</v>
+      </c>
+      <c r="C26">
+        <v>29.98</v>
+      </c>
+      <c r="D26">
+        <v>16.84</v>
+      </c>
+      <c r="E26">
+        <v>30.68</v>
+      </c>
+      <c r="F26">
+        <v>22.31</v>
+      </c>
+      <c r="G26">
+        <v>1.98</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>0.33</v>
+      </c>
+      <c r="C27">
+        <v>29.09</v>
+      </c>
+      <c r="D27">
+        <v>1.1</v>
+      </c>
+      <c r="E27">
+        <v>20.35</v>
+      </c>
+      <c r="F27">
+        <v>49.14</v>
+      </c>
+      <c r="G27">
+        <v>1.59</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
+      </c>
+      <c r="C28">
+        <v>4.52</v>
+      </c>
+      <c r="D28">
+        <v>33.31</v>
+      </c>
+      <c r="E28">
+        <v>27.83</v>
+      </c>
+      <c r="F28">
+        <v>34.29</v>
+      </c>
+      <c r="G28">
+        <v>1.78</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0.27</v>
+      </c>
+      <c r="C29">
+        <v>32.15</v>
+      </c>
+      <c r="D29">
+        <v>14.62</v>
+      </c>
+      <c r="E29">
+        <v>26.15</v>
+      </c>
+      <c r="F29">
+        <v>26.81</v>
+      </c>
+      <c r="G29">
+        <v>1.97</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>0.13</v>
+      </c>
+      <c r="C30">
+        <v>6.63</v>
+      </c>
+      <c r="D30">
+        <v>24.89</v>
+      </c>
+      <c r="E30">
+        <v>35.84</v>
+      </c>
+      <c r="F30">
+        <v>32.52</v>
+      </c>
+      <c r="G30">
+        <v>1.83</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>0.1637931034482759</v>
+      </c>
+      <c r="C31">
+        <v>20.51896551724138</v>
+      </c>
+      <c r="D31">
+        <v>18.36</v>
+      </c>
+      <c r="E31">
+        <v>29.70724137931035</v>
+      </c>
+      <c r="F31">
+        <v>31.25137931034482</v>
+      </c>
+      <c r="G31">
+        <v>1.848275862068966</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>13.07</v>
+      </c>
+      <c r="C2">
+        <v>3.06</v>
+      </c>
+      <c r="D2">
+        <v>13.57</v>
+      </c>
+      <c r="E2">
+        <v>26.19</v>
+      </c>
+      <c r="F2">
+        <v>44.11</v>
+      </c>
+      <c r="G2">
+        <v>1.96</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>16.73</v>
+      </c>
+      <c r="C3">
+        <v>3.69</v>
+      </c>
+      <c r="D3">
+        <v>20.15</v>
+      </c>
+      <c r="E3">
+        <v>28.73</v>
+      </c>
+      <c r="F3">
+        <v>30.7</v>
+      </c>
+      <c r="G3">
+        <v>2.11</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>17.12</v>
+      </c>
+      <c r="C4">
+        <v>3.81</v>
+      </c>
+      <c r="D4">
+        <v>23.32</v>
+      </c>
+      <c r="E4">
+        <v>26.4</v>
+      </c>
+      <c r="F4">
+        <v>29.35</v>
+      </c>
+      <c r="G4">
+        <v>2.13</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>16.5</v>
+      </c>
+      <c r="C5">
+        <v>2.17</v>
+      </c>
+      <c r="D5">
+        <v>16.9</v>
+      </c>
+      <c r="E5">
+        <v>31.67</v>
+      </c>
+      <c r="F5">
+        <v>32.77</v>
+      </c>
+      <c r="G5">
+        <v>2.03</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>10.59</v>
+      </c>
+      <c r="C6">
+        <v>4.22</v>
+      </c>
+      <c r="D6">
+        <v>11.58</v>
+      </c>
+      <c r="E6">
+        <v>20.35</v>
+      </c>
+      <c r="F6">
+        <v>53.27</v>
+      </c>
+      <c r="G6">
+        <v>1.85</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>18.59</v>
+      </c>
+      <c r="C7">
+        <v>1.75</v>
+      </c>
+      <c r="D7">
+        <v>19.81</v>
+      </c>
+      <c r="E7">
+        <v>33.92</v>
+      </c>
+      <c r="F7">
+        <v>25.93</v>
+      </c>
+      <c r="G7">
+        <v>2.05</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>21.31</v>
+      </c>
+      <c r="C8">
+        <v>3.7</v>
+      </c>
+      <c r="D8">
+        <v>20.18</v>
+      </c>
+      <c r="E8">
+        <v>32.56</v>
+      </c>
+      <c r="F8">
+        <v>22.25</v>
+      </c>
+      <c r="G8">
+        <v>2.13</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>18.33</v>
+      </c>
+      <c r="C9">
+        <v>3.58</v>
+      </c>
+      <c r="D9">
+        <v>19.73</v>
+      </c>
+      <c r="E9">
+        <v>32.03</v>
+      </c>
+      <c r="F9">
+        <v>26.33</v>
+      </c>
+      <c r="G9">
+        <v>2.12</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>15.65</v>
+      </c>
+      <c r="C10">
+        <v>4.57</v>
+      </c>
+      <c r="D10">
+        <v>19.88</v>
+      </c>
+      <c r="E10">
+        <v>37.06</v>
+      </c>
+      <c r="F10">
+        <v>22.84</v>
+      </c>
+      <c r="G10">
+        <v>2.1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>14.31</v>
+      </c>
+      <c r="C11">
+        <v>6.45</v>
+      </c>
+      <c r="D11">
+        <v>16.57</v>
+      </c>
+      <c r="E11">
+        <v>30.06</v>
+      </c>
+      <c r="F11">
+        <v>32.62</v>
+      </c>
+      <c r="G11">
+        <v>2.13</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>16.22</v>
+      </c>
+      <c r="C12">
+        <v>3.7</v>
+      </c>
+      <c r="D12">
+        <v>18.169</v>
+      </c>
+      <c r="E12">
+        <v>29.897</v>
+      </c>
+      <c r="F12">
+        <v>32.017</v>
+      </c>
+      <c r="G12">
+        <v>2.061</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.23</v>
+      </c>
+      <c r="C2">
+        <v>4.6</v>
+      </c>
+      <c r="D2">
+        <v>1.15</v>
+      </c>
+      <c r="E2">
+        <v>24.06</v>
+      </c>
+      <c r="F2">
+        <v>69.97</v>
+      </c>
+      <c r="G2">
+        <v>1.15</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>0.29</v>
+      </c>
+      <c r="C3">
+        <v>6.89</v>
+      </c>
+      <c r="D3">
+        <v>0.96</v>
+      </c>
+      <c r="E3">
+        <v>34.15</v>
+      </c>
+      <c r="F3">
+        <v>57.7</v>
+      </c>
+      <c r="G3">
+        <v>1.34</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>0.16</v>
+      </c>
+      <c r="C4">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.04</v>
+      </c>
+      <c r="E4">
+        <v>43.98</v>
+      </c>
+      <c r="F4">
+        <v>46.79</v>
+      </c>
+      <c r="G4">
+        <v>1.41</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>0.19</v>
+      </c>
+      <c r="C5">
+        <v>4.33</v>
+      </c>
+      <c r="D5">
+        <v>0.55</v>
+      </c>
+      <c r="E5">
+        <v>43.79</v>
+      </c>
+      <c r="F5">
+        <v>51.14</v>
+      </c>
+      <c r="G5">
+        <v>1.27</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>0.14</v>
+      </c>
+      <c r="C6">
+        <v>3.47</v>
+      </c>
+      <c r="D6">
+        <v>0.58</v>
+      </c>
+      <c r="E6">
+        <v>55.42</v>
+      </c>
+      <c r="F6">
+        <v>40.4</v>
+      </c>
+      <c r="G6">
+        <v>1.22</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>0.202</v>
+      </c>
+      <c r="C7">
+        <v>5.465999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.8560000000000001</v>
+      </c>
+      <c r="E7">
+        <v>40.27999999999999</v>
+      </c>
+      <c r="F7">
+        <v>53.2</v>
+      </c>
+      <c r="G7">
+        <v>1.278</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.06</v>
+      </c>
+      <c r="C2">
+        <v>1.21</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>89.13</v>
+      </c>
+      <c r="F2">
+        <v>9.4</v>
+      </c>
+      <c r="G2">
+        <v>0.57</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>11.75</v>
+      </c>
+      <c r="C3">
+        <v>19.77</v>
+      </c>
+      <c r="D3">
+        <v>0.89</v>
+      </c>
+      <c r="E3">
+        <v>46.76</v>
+      </c>
+      <c r="F3">
+        <v>20.84</v>
+      </c>
+      <c r="G3">
+        <v>1.87</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0.13</v>
+      </c>
+      <c r="C4">
+        <v>3.52</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>2.14</v>
+      </c>
+      <c r="F4">
+        <v>93.81</v>
+      </c>
+      <c r="G4">
+        <v>0.42</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>20.9</v>
+      </c>
+      <c r="C5">
+        <v>3.01</v>
+      </c>
+      <c r="D5">
+        <v>0.51</v>
+      </c>
+      <c r="E5">
+        <v>44.7</v>
+      </c>
+      <c r="F5">
+        <v>30.89</v>
+      </c>
+      <c r="G5">
+        <v>1.71</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>15.76</v>
+      </c>
+      <c r="C6">
+        <v>5.29</v>
+      </c>
+      <c r="D6">
+        <v>0.91</v>
+      </c>
+      <c r="E6">
+        <v>34.8</v>
+      </c>
+      <c r="F6">
+        <v>43.25</v>
+      </c>
+      <c r="G6">
+        <v>1.76</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="C7">
+        <v>6.56</v>
+      </c>
+      <c r="D7">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="E7">
+        <v>43.50599999999999</v>
+      </c>
+      <c r="F7">
+        <v>39.638</v>
+      </c>
+      <c r="G7">
+        <v>1.266</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>